--- a/biology/Botanique/Zigadenus/Zigadenus.xlsx
+++ b/biology/Botanique/Zigadenus/Zigadenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zigadenus est un genre de plante appartenant à la famille des Mélanthiacées.
 </t>
@@ -511,14 +523,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit en 1803 par le botaniste et explorateur français André Michaux[1]. 
-Liste d'espèces
-Selon ITIS      (6 août 2015)[2] et NCBI  (6 août 2015)[3] :
-Zigadenus glaberrimus Michx.
-Redistribution des espèces anciennement dans ce genre
-Au XIXe siècle, la classification phylogénétique a occasionné des remaniements au sein de la famille linéenne des Liliaceae, ne conservant dans ce genre qu'une seule espèce, Zigadenus glaberrimus, les autres ayant été recomposées dans d'autres genres de Melanthiaceae :  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1803 par le botaniste et explorateur français André Michaux. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zigadenus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zigadenus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (6 août 2015) et NCBI  (6 août 2015) :
+Zigadenus glaberrimus Michx.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zigadenus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zigadenus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Redistribution des espèces anciennement dans ce genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Au XIXe siècle, la classification phylogénétique a occasionné des remaniements au sein de la famille linéenne des Liliaceae, ne conservant dans ce genre qu'une seule espèce, Zigadenus glaberrimus, les autres ayant été recomposées dans d'autres genres de Melanthiaceae :  
 Amianthium muscitotoxum
 Anticlea elegans
 Anticlea hintoniorum
